--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.588</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.399</v>
+        <v>15.729</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.442</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.411</v>
+        <v>19.963</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.597</v>
+        <v>0.944</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.02255164573293</v>
+        <v>16.89867620171701</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.90530464196407</v>
+        <v>16.51889236875008</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.12413959482904</v>
+        <v>31.66287485612876</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.169309514961558</v>
+        <v>3.537176472060349</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.68698864939465</v>
+        <v>24.04404774382647</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.94661351420915</v>
+        <v>28.69536117166891</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.661551061269044</v>
+        <v>8.251373470544017</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44.76808551918505</v>
+        <v>45.96808623737639</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48.72786245564194</v>
+        <v>47.7801463426656</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.56130771101648</v>
+        <v>17.52687735019384</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.18797543378103</v>
+        <v>20.88206057147547</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.96821152820841</v>
+        <v>20.79409469908937</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.64404528709417</v>
+        <v>23.11721416614043</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.92469496513305</v>
+        <v>23.03678760714539</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50.8496492111942</v>
+        <v>50.47540697053736</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.53248892006651</v>
+        <v>16.35939871295678</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.98068159107929</v>
+        <v>28.0641667201508</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.80607643608073</v>
+        <v>34.50783473506928</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.63923379601507</v>
+        <v>6.20478358261386</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.53112389533167</v>
+        <v>14.1027308131319</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.03091382726815</v>
+        <v>17.071491044241</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.32232243912522</v>
+        <v>3.670363620650804</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.30008665883754</v>
+        <v>20.04660952734945</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.74186461150309</v>
+        <v>25.58992943635422</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.95495064115953</v>
+        <v>31.48331367825095</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.59513687552381</v>
+        <v>32.92368072586797</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.065262681958334</v>
+        <v>2.783402733161214</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37.82871108532993</v>
+        <v>38.06987924733505</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.71112251752726</v>
+        <v>37.38510654246456</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.047975171875983</v>
+        <v>8.292859631490884</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>51.28538414866479</v>
+        <v>52.24897753005561</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.7125300003236</v>
+        <v>50.97601228622021</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.59972467093925</v>
+        <v>47.4360282674233</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.99888148408429</v>
+        <v>52.1699693196059</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.53696200736599</v>
+        <v>54.21773764956239</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>34.10068916080285</v>
+        <v>42.99673660530453</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>49.5885043988342</v>
+        <v>56.00588606286932</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>61.19899013746088</v>
+        <v>59.16716048243359</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.42378783995146</v>
+        <v>24.37751372566829</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.5429363112907</v>
+        <v>38.58538091411599</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.05021237078272</v>
+        <v>38.41498068610755</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.207878325055937</v>
+        <v>6.562611929241186</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.69732763909855</v>
+        <v>37.50821799868118</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.87450191727382</v>
+        <v>37.96977652383997</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.249779945662663</v>
+        <v>6.156297200214674</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52.60185674810964</v>
+        <v>55.10003855213997</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.349716811524168</v>
+        <v>8.028360911690093</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.0205862579151</v>
+        <v>22.58311415795419</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.2284997420782</v>
+        <v>27.94305637948375</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.825483446346521</v>
+        <v>1.615434504155282</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.74515191855468</v>
+        <v>34.04182673221066</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.932054852241</v>
+        <v>37.78389306909538</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.968151984154023</v>
+        <v>8.144704684970211</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50.9075596455645</v>
+        <v>50.76067291743857</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.61319500384224</v>
+        <v>54.43300669326355</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>59.73661111285331</v>
+        <v>59.83004475609251</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.77529337271687</v>
+        <v>61.07721978098363</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>65.32770551160401</v>
+        <v>65.36140405282053</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14.33487475570291</v>
+        <v>13.73818284010403</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.57626048554868</v>
+        <v>36.15276003561689</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.66119299584253</v>
+        <v>46.99150419218476</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.82651712927966</v>
+        <v>14.54026103521223</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.65356591542506</v>
+        <v>32.79580302055934</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.64517843106911</v>
+        <v>36.16931169044313</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5.296611233322441</v>
+        <v>6.172352848795224</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.32650520995192</v>
+        <v>28.05997216501818</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.76462445300886</v>
+        <v>38.1281386037256</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.865029423132938</v>
+        <v>5.314296298800823</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.41243910953106</v>
+        <v>47.71800053825378</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.660427331890538</v>
+        <v>5.225204555009675</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.67468927415808</v>
+        <v>17.28105854603705</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.26926449288423</v>
+        <v>26.00462713816786</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.209872470666379</v>
+        <v>1.752513154447445</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.22540244959141</v>
+        <v>33.51104359303238</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.25271445489645</v>
+        <v>39.58706928100939</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.97180821550522</v>
+        <v>3.119037965846953</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.69908265639241</v>
+        <v>48.14907447033825</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.22192998008244</v>
+        <v>53.57931174304237</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51.95005809967189</v>
+        <v>51.1560834008084</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>53.65024272009227</v>
+        <v>53.36182184476184</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>61.27958766657989</v>
+        <v>60.94853814223211</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.45466012744949</v>
+        <v>12.40765744974005</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.99231387146995</v>
+        <v>26.70008580659431</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.43040570420122</v>
+        <v>50.68504907815559</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.569408031710246</v>
+        <v>10.27549850878313</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.94737747366919</v>
+        <v>28.22861710030204</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.22740385799271</v>
+        <v>36.23481892203917</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.743131884296304</v>
+        <v>6.479977907997984</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.11345593692976</v>
+        <v>28.82450719035729</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.60777036976927</v>
+        <v>41.69611136483312</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.304957482323513</v>
+        <v>1.988802315029584</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.4385777223805</v>
+        <v>42.44468361759841</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.36485209229282</v>
+        <v>23.65036742878621</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.10564584440501</v>
+        <v>20.48331905748049</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.91551971801221</v>
+        <v>34.51263002476492</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.89158794818658</v>
+        <v>37.36134163743315</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.417553008984299</v>
+        <v>7.816480642614611</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>15.69945841145511</v>
+        <v>16.99892727171382</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23.12677976707485</v>
+        <v>24.06516193496445</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.06276190420411</v>
+        <v>14.69073041190373</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.37579897478039</v>
+        <v>24.31866810589065</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.47072796187894</v>
+        <v>34.67320996179121</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.634540640619672</v>
+        <v>5.352168541551521</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.96324840256198</v>
+        <v>11.6982526604439</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.1047712740392</v>
+        <v>18.56412380043917</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.044790493890353</v>
+        <v>3.399614794022149</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.81596942271569</v>
+        <v>21.54918302146933</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.39935467375146</v>
+        <v>40.7553796734684</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.30169986589882</v>
+        <v>22.94353204988078</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.06371464470296</v>
+        <v>42.1986760105297</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.57812849584279</v>
+        <v>49.26521945707423</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.493847442790454</v>
+        <v>6.461759180391617</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.78194003273607</v>
+        <v>20.44876774640032</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.15116017436438</v>
+        <v>33.52955968531667</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.03673220180378</v>
+        <v>59.03662961135548</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>60.39915651170406</v>
+        <v>60.21269256108712</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.62647050330504</v>
+        <v>65.70785748347666</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>64.02344337462456</v>
+        <v>64.38777736324428</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.05320975386772</v>
+        <v>26.88477458963096</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.07646451958411</v>
+        <v>62.50291037466319</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>65.39031308014417</v>
+        <v>65.1006876910821</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.60280873049169</v>
+        <v>30.43842224227761</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.83254217178565</v>
+        <v>42.02780854979245</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.93661472405712</v>
+        <v>45.00651099779856</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6.919869443608377</v>
+        <v>7.998117734577434</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.53041775651568</v>
+        <v>46.49871972117177</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.48815727841946</v>
+        <v>46.607752199901</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.681332291556796</v>
+        <v>9.237185317051402</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.48683487842351</v>
+        <v>69.25654824485639</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.78309490476242</v>
+        <v>68.6425306013966</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.01299118623902</v>
+        <v>80.73484100574964</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.61489700546556</v>
+        <v>83.20243708577821</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.13017360913646</v>
+        <v>84.7896057618732</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.30086252531136</v>
+        <v>38.46065438706453</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>79.24723557080419</v>
+        <v>78.94161214491621</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.07508499137512</v>
+        <v>79.9590727042079</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>61.3901240613894</v>
+        <v>61.80493895696551</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.46759549962498</v>
+        <v>48.16628243882885</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.52333136549748</v>
+        <v>55.75433188598829</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>63.34194229602822</v>
+        <v>63.64329135864169</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.06960519494706</v>
+        <v>14.60512035400743</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.54787017682393</v>
+        <v>55.00419315509434</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.91651437555414</v>
+        <v>62.03688679077521</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.16853599146411</v>
+        <v>17.09923594360287</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.90648842413206</v>
+        <v>37.23430167269913</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.52435709770671</v>
+        <v>43.96033908999246</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.72704377500234</v>
+        <v>6.587614093255027</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.03411836672505</v>
+        <v>39.27413022481815</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.07418511982118</v>
+        <v>46.56043663645215</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.016225422395685</v>
+        <v>8.749368348402577</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.66503454695641</v>
+        <v>63.25897445126515</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>72.98844481323755</v>
+        <v>72.85237992044591</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.60024169111205</v>
+        <v>75.97021966721411</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.89021241498911</v>
+        <v>79.4873352779951</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>88.93116148263462</v>
+        <v>88.31334969971384</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.48236194601049</v>
+        <v>19.97775715707045</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.78116893149095</v>
+        <v>72.99601978085069</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82.48198135048909</v>
+        <v>81.87552740046735</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>59.5286317276443</v>
+        <v>59.3198397323083</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.44953165405257</v>
+        <v>30.22461872475039</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.38859568010602</v>
+        <v>35.01024391349191</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.93480236136653</v>
+        <v>46.61429725282969</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.46856925658156</v>
+        <v>10.70269099240157</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.01626509991073</v>
+        <v>50.06468954082611</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>59.7467048565935</v>
+        <v>59.53269333137852</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.69485799032243</v>
+        <v>13.67072670948897</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.53102194919407</v>
+        <v>35.64319446858263</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.80650371368858</v>
+        <v>45.77444507931352</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.359574100857756</v>
+        <v>7.231190968969457</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.97337756976429</v>
+        <v>40.28680440653605</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.1847873093898</v>
+        <v>49.92753248821775</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.182547328956538</v>
+        <v>2.88785618228609</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.09767189448571</v>
+        <v>57.83587781424836</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>72.39151453309444</v>
+        <v>71.98196181532946</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.28988397711153</v>
+        <v>63.85614493122955</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.64834551402373</v>
+        <v>71.15857133242409</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.6864912660332</v>
+        <v>86.76613786868616</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>12.47759452799591</v>
+        <v>13.90070677061421</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.58429923881224</v>
+        <v>64.62418814875446</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.49359461605761</v>
+        <v>80.05053580732739</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.29024276208211</v>
+        <v>12.07805547524683</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12.52108396283793</v>
+        <v>13.45849627139886</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.34924504286079</v>
+        <v>24.45511050088153</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.548110965374722</v>
+        <v>2.572488060020614</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.26133654120061</v>
+        <v>17.00623988632973</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.45457907084436</v>
+        <v>19.02355407188673</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5.878632549468811</v>
+        <v>6.598674817118617</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.78976370357914</v>
+        <v>34.35202564541369</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.82314798642199</v>
+        <v>35.96927051792065</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>14.47562127858361</v>
+        <v>15.03696183252888</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.82051970824426</v>
+        <v>18.47236422006773</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.03501483813373</v>
+        <v>17.71029589386464</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>15.27561633887511</v>
+        <v>15.7058964802168</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.46015850287193</v>
+        <v>14.32898038783938</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.80495644383991</v>
+        <v>30.47977936640137</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.421763004531005</v>
+        <v>10.58898216988902</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.56914074432978</v>
+        <v>24.87126132853994</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.83477887707511</v>
+        <v>28.1892225257828</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.05343460966623326</v>
+        <v>1.352034146409746</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.171627194784392</v>
+        <v>10.1076669621602</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.85594747672625</v>
+        <v>14.39226616963917</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1.992181848747034</v>
+        <v>3.034051269260488</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.20093070366176</v>
+        <v>24.17026119774129</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>18.13218796887885</v>
+        <v>19.9552496198737</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.03700283017679</v>
+        <v>24.88658020798191</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.06343855013943</v>
+        <v>27.34371205367152</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.361956006292683</v>
+        <v>2.406184894944694</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.72393061724564</v>
+        <v>28.97514645659507</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.33104900823048</v>
+        <v>30.34362066597241</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>5.603437944548553</v>
+        <v>6.26223248370907</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.73431665788587</v>
+        <v>44.29997735921685</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.85403958598606</v>
+        <v>43.41956301690495</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.74146865395136</v>
+        <v>38.76389021016931</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.94038417430291</v>
+        <v>47.23090933938995</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.02171451229893</v>
+        <v>46.7762245049906</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.97612969669805</v>
+        <v>23.35692853891631</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.51304835304747</v>
+        <v>39.81044277667539</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.36580377288661</v>
+        <v>42.46372386344026</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.45930546712579</v>
+        <v>18.91179145385463</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.17045001170917</v>
+        <v>31.02697156469855</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.10455560574805</v>
+        <v>33.43975724141352</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.5575759664797459</v>
+        <v>1.796775474721159</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.81752500648639</v>
+        <v>29.24195593043749</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.15525324611885</v>
+        <v>33.30110346397335</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.727973027980454</v>
+        <v>3.662370635463876</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.51976153677035</v>
+        <v>47.97532865431113</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.508783013052238</v>
+        <v>6.209059247755643</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.88777088481705</v>
+        <v>17.65247188034816</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.31864834600409</v>
+        <v>24.45868125362469</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.8468243310272037</v>
+        <v>1.811360859982539</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.45197513424853</v>
+        <v>28.41806693769082</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.84841597055485</v>
+        <v>29.69443314558054</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>5.723363542228668</v>
+        <v>6.88063883107225</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>44.63598053732122</v>
+        <v>43.89924832609562</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.97744761935095</v>
+        <v>46.14589581407662</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.06589840887845</v>
+        <v>45.80362774963199</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.76741038006355</v>
+        <v>50.20318789318297</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>56.71685276783342</v>
+        <v>55.86816944213071</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4.169469533561024</v>
+        <v>5.166078225570342</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.5418681652613</v>
+        <v>24.64682346317844</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.33325185265083</v>
+        <v>31.46830898658833</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.80646264163545</v>
+        <v>11.5344867432168</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.28117059300136</v>
+        <v>28.22018381165468</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.93692312778825</v>
+        <v>32.30400250755989</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.3908048361937304</v>
+        <v>1.60699703200795</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.94937675243325</v>
+        <v>26.22976971067136</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.89433375177359</v>
+        <v>34.01416424052927</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3.383811678292336</v>
+        <v>4.551936934283898</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>43.80303814637517</v>
+        <v>43.2901842101993</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2.924429566142184</v>
+        <v>4.076115688572585</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>11.6021981906959</v>
+        <v>12.74307668785875</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.77558575599988</v>
+        <v>23.16710938774929</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.09846564796684376</v>
+        <v>1.273981065694336</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.06762563912741</v>
+        <v>24.21416684307717</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.81892051024759</v>
+        <v>32.6335443191243</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.749217076136226</v>
+        <v>2.216323504524013</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.21911657305056</v>
+        <v>39.69987748295353</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.34479961747478</v>
+        <v>45.74323972017995</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>41.91248909219871</v>
+        <v>41.16614058894247</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.24691343153147</v>
+        <v>45.50476365081921</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.01753677085577</v>
+        <v>51.20606551190623</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1.179790472750447</v>
+        <v>3.091307721563922</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.79015894687501</v>
+        <v>21.6268941670219</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.58740268772329</v>
+        <v>34.98959249910975</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.448387601795734</v>
+        <v>7.476629256952531</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.66816690406398</v>
+        <v>25.19195127135337</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.86223265613726</v>
+        <v>30.36762100119882</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-0.1673507792996496</v>
+        <v>1.206324006610885</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.46702450002364</v>
+        <v>23.03413367117286</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.65679365555299</v>
+        <v>31.30242702898001</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.812529878016683</v>
+        <v>1.989670787789969</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.95278900517391</v>
+        <v>36.85079877939902</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.3703395358574</v>
+        <v>26.23576796187492</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.80179380990677</v>
+        <v>21.247405847778</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.79831689860093</v>
+        <v>34.78734054924121</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.40409972479924</v>
+        <v>37.30782623439988</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.49892210268721</v>
+        <v>9.095699579125515</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.43849832889192</v>
+        <v>19.2171483239556</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.69710237699418</v>
+        <v>26.07068145121194</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.15602293498064</v>
+        <v>14.04377227258357</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.76788205845108</v>
+        <v>26.94191216627786</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.64409595115369</v>
+        <v>34.53494360152979</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.1677483834460709</v>
+        <v>1.250394931005985</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.701313775491759</v>
+        <v>9.453739678296412</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.85445683298931</v>
+        <v>17.09851409397206</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.431295273113182</v>
+        <v>4.21965460103084</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.22738203176226</v>
+        <v>26.81638334389115</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.62461521429207</v>
+        <v>44.48059307734329</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.4448234307259</v>
+        <v>26.4279341854381</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.76554117069614</v>
+        <v>42.38759741586735</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.44848815822063</v>
+        <v>47.58232031957981</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.40356200488473</v>
+        <v>9.058506123817917</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.39514564970718</v>
+        <v>23.36491690575639</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.59259201114479</v>
+        <v>35.131472341995</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>54.25311879323632</v>
+        <v>54.22625541890474</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.14797892148152</v>
+        <v>48.2948747797217</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>57.35705205530656</v>
+        <v>57.09948282327272</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.8087104278565</v>
+        <v>57.52857781080708</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.46206770905874</v>
+        <v>19.77862622684898</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.43147870679381</v>
+        <v>53.2106512879285</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>55.95441412643994</v>
+        <v>55.62007988345884</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.35316031750093</v>
+        <v>26.565421429106</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.17173258190438</v>
+        <v>37.50060801583186</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.05280437192641</v>
+        <v>43.10753408591533</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2.021788504139373</v>
+        <v>3.264361289979487</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.61912106487077</v>
+        <v>39.65666278448855</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.32871978662557</v>
+        <v>43.07835272008129</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>7.869282952962088</v>
+        <v>8.630714307874602</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.7685331148772</v>
+        <v>62.11067817790477</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>66.44773556257687</v>
+        <v>65.45291455648507</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70.31305298055598</v>
+        <v>69.56597641293445</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>75.86148361684455</v>
+        <v>75.53672224281819</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>79.87598283168313</v>
+        <v>78.56284440972904</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.86059006077071</v>
+        <v>31.99925524010591</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.64032007360618</v>
+        <v>70.8465469057557</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>74.21874543738595</v>
+        <v>73.23658218379519</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>55.44087769110772</v>
+        <v>55.15684111035977</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.27506699837957</v>
+        <v>42.66912653603775</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>48.67069349390817</v>
+        <v>48.99292091531201</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>56.24348622411517</v>
+        <v>56.00948431977301</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.56736742607799</v>
+        <v>11.50183123833563</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.9029900150195</v>
+        <v>47.44586310450387</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.59884762649938</v>
+        <v>52.63729025338033</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.82590222777673</v>
+        <v>16.51567538322436</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.58369556778582</v>
+        <v>34.92690773636799</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.04535035633041</v>
+        <v>42.00386165188962</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.9359864029766705</v>
+        <v>2.251977895385565</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.24779021360943</v>
+        <v>37.8508917208094</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.73413706612275</v>
+        <v>41.48669649638437</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.665342606273757</v>
+        <v>7.76768608732829</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>60.79790174376063</v>
+        <v>59.9324622860253</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>69.50923309149552</v>
+        <v>68.43241620399348</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>68.7985303614355</v>
+        <v>68.0361663773119</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>73.16040766644063</v>
+        <v>72.21790722470544</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>83.50519144795128</v>
+        <v>81.99356248810852</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.14050520453364</v>
+        <v>17.20848180857524</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>68.23797619649132</v>
+        <v>67.3649666316972</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>74.42239258551197</v>
+        <v>73.41460192557086</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>50.41146158229009</v>
+        <v>50.39272730628802</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.03388581740585</v>
+        <v>26.65920175304391</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.18077367012479</v>
+        <v>33.44484020754221</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.19193507906694</v>
+        <v>40.62421319902566</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.585851309951508</v>
+        <v>7.648436223973963</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.85519163969034</v>
+        <v>38.42783191291895</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.97043402214497</v>
+        <v>48.23970575539869</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.09428678724816</v>
+        <v>11.383181351593</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.21229170896245</v>
+        <v>34.09172149879073</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.56415029311556</v>
+        <v>42.53036296885716</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.555709946522537</v>
+        <v>1.826753004816638</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.56513820557169</v>
+        <v>36.0598131108236</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.49458820997712</v>
+        <v>42.31181984792595</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2.12333506784173</v>
+        <v>3.341204068006501</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.3024110740761</v>
+        <v>56.18714297120428</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>67.8832290814489</v>
+        <v>66.85615542873836</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61.41503332945113</v>
+        <v>60.23194986014435</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>68.60237439567922</v>
+        <v>67.36173401247254</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.85944344833177</v>
+        <v>78.48406374486119</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.293826944640298</v>
+        <v>10.43010824207822</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.57400942499282</v>
+        <v>63.44519796973472</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>73.70739829412096</v>
+        <v>72.64955047486933</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.22461767965866</v>
+        <v>13.99799134623865</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14.15906371967527</v>
+        <v>14.18023620836629</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.96221300547482</v>
+        <v>28.22590809769903</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.63752766602299</v>
+        <v>4.2182818540435</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.37943757085081</v>
+        <v>19.87224118229361</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.15360126412786</v>
+        <v>23.12677196619927</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.203502986239354</v>
+        <v>8.798002976230386</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>41.09366071906822</v>
+        <v>41.38552903180533</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.53189566682484</v>
+        <v>43.86475165835096</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.56372922016365</v>
+        <v>16.09711663916449</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.70230183200258</v>
+        <v>19.25673353196816</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.92433089321451</v>
+        <v>19.39400497519552</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.61446838445282</v>
+        <v>25.35815454605911</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.49407066485442</v>
+        <v>23.18015567175421</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.85064563071554</v>
+        <v>38.16615242853887</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16.87393553063496</v>
+        <v>16.92296179055272</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.54005247309555</v>
+        <v>29.31214451220176</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.97549753583016</v>
+        <v>33.79505199677092</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.569870552117919</v>
+        <v>7.157630969898953</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.96291595167941</v>
+        <v>16.21244357418476</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.78067696172639</v>
+        <v>20.23366063929336</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.295680190102569</v>
+        <v>4.799160346161113</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.4750982048094</v>
+        <v>25.20135642201095</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.775416026904</v>
+        <v>24.95689000795424</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.95222143270763</v>
+        <v>33.52221562165741</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.52517338195161</v>
+        <v>33.88885044172864</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.526818796399812</v>
+        <v>4.218014955871016</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>38.88627047735565</v>
+        <v>38.34807910994991</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.4674402454615</v>
+        <v>39.01901062021077</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.489348745902895</v>
+        <v>8.076936423406</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.28337299801927</v>
+        <v>54.82464265240408</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>52.52124355305677</v>
+        <v>51.62065853770901</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>47.73499363380913</v>
+        <v>46.87233680015235</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>55.44436492579898</v>
+        <v>54.43468159940571</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>56.61482861140227</v>
+        <v>55.66067633250633</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.71465414367923</v>
+        <v>37.21254425860617</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.94766110706757</v>
+        <v>45.78201258942367</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>48.63013571245027</v>
+        <v>47.46938773185381</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.19003367717147</v>
+        <v>25.77470471750647</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>41.75565953937107</v>
+        <v>40.62273638994849</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.93899249519626</v>
+        <v>40.315842648631</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.560387041152161</v>
+        <v>7.784461363541958</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>39.69956239970855</v>
+        <v>39.62950829759276</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>41.08058998252947</v>
+        <v>41.05782865587187</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.692435028066363</v>
+        <v>7.802190570643432</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>58.56298496947677</v>
+        <v>59.17826109303901</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.945610646013602</v>
+        <v>9.225754534617582</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.19573989263366</v>
+        <v>24.13375546650517</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.0945424217897</v>
+        <v>29.08065507879856</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.533172527347922</v>
+        <v>2.960189083980396</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.81201074436579</v>
+        <v>33.70011691696031</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>37.69828373130115</v>
+        <v>37.08093162277002</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>7.810463518863948</v>
+        <v>8.53113790795803</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.61481454064436</v>
+        <v>52.41184684447489</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.08889390797245</v>
+        <v>55.00537243470335</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>56.70308726653353</v>
+        <v>56.26417073172091</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.71531934297408</v>
+        <v>61.46742352976726</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>67.10536672951899</v>
+        <v>65.78588708260929</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.97457569431957</v>
+        <v>16.3724227232689</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.19821976538698</v>
+        <v>33.11395558628395</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.19612021878923</v>
+        <v>39.39365361932404</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.09039208784151</v>
+        <v>17.12539526742883</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.96122572841565</v>
+        <v>35.80190348086924</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.80877445705402</v>
+        <v>38.31688573220156</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.963856797404983</v>
+        <v>7.567598484261804</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.09734545724724</v>
+        <v>31.7119034593923</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.92255594174459</v>
+        <v>39.55747058701202</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.529138738849156</v>
+        <v>6.218012713057657</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>53.5778013697239</v>
+        <v>52.30201167615523</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.922660997050667</v>
+        <v>6.521278098077861</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.67955237332636</v>
+        <v>20.3293758174713</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.44802184413938</v>
+        <v>29.07043906402725</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.936199618491109</v>
+        <v>3.534015438890297</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.69819224148599</v>
+        <v>34.56830478826342</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>41.29772270812958</v>
+        <v>40.73243294199031</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.095653810984004</v>
+        <v>4.7673582663495</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>52.68733662455328</v>
+        <v>51.25126397208415</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>56.69724954870973</v>
+        <v>55.52567238966286</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>52.69232080005749</v>
+        <v>51.14706041568911</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>56.69952918510391</v>
+        <v>55.07197342688653</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>64.00051849428274</v>
+        <v>62.17470805107512</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.06468199287827</v>
+        <v>15.84333278061332</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.4292941092385</v>
+        <v>27.19511747363225</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.52109995176245</v>
+        <v>41.90575947496421</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>12.98991298513193</v>
+        <v>13.138820861857</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>32.74853212565395</v>
+        <v>31.75075882998508</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.19039976373617</v>
+        <v>37.5008778762726</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7.056235425490414</v>
+        <v>7.665243346022287</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>32.67635831667943</v>
+        <v>32.10976694155055</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>43.77306070168941</v>
+        <v>42.96642632485332</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.893510511313924</v>
+        <v>3.525048484504904</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>48.57347212747158</v>
+        <v>47.12473557900181</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.08621904917709</v>
+        <v>27.63924980783317</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.02460477395368</v>
+        <v>23.6615840321148</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.97677291547534</v>
+        <v>39.164605710998</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>41.94338608821589</v>
+        <v>41.19503766447245</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.92856635169647</v>
+        <v>11.0049212060893</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.12394445054925</v>
+        <v>22.28980368575106</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.26671955846027</v>
+        <v>29.11063002284461</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.70856543298935</v>
+        <v>18.33481138184102</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.46830606947393</v>
+        <v>28.39788350724258</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.18887009297467</v>
+        <v>36.5954687522562</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.986118517908636</v>
+        <v>6.469780088515808</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.20684313482449</v>
+        <v>13.6455531573806</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.90161481189809</v>
+        <v>20.05019078417285</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>4.403184610490829</v>
+        <v>4.84595948841115</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.52810856772761</v>
+        <v>25.40319826430122</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.52347315495307</v>
+        <v>43.91471423772607</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.66095949192592</v>
+        <v>25.79481081087159</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.17032153146547</v>
+        <v>44.5752292811708</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>51.08725468210838</v>
+        <v>50.30693241830119</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.720336857070471</v>
+        <v>9.972926671569894</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.18829915455417</v>
+        <v>24.02306483920135</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.48116725037875</v>
+        <v>36.86625662463085</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>62.69306263645571</v>
+        <v>61.37765003153183</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>63.51926752490185</v>
+        <v>61.94273001031691</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>69.61586895637186</v>
+        <v>68.02471244995823</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>69.01152464665692</v>
+        <v>67.49670361680884</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.7478249925045</v>
+        <v>28.53002309473216</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>66.42961013863933</v>
+        <v>64.89689242825817</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>69.22068173280275</v>
+        <v>67.50566648726409</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.27235113317029</v>
+        <v>31.35228805999268</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.47425878776076</v>
+        <v>43.8942614487411</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.34252760116066</v>
+        <v>45.85396586455948</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.243432741871342</v>
+        <v>8.97432390471814</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.61340485579215</v>
+        <v>46.99675708375182</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.50593301576266</v>
+        <v>47.04191803791136</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>9.141548733120715</v>
+        <v>9.779423053516695</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.02571051556012</v>
+        <v>69.64655385555776</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.56611322562931</v>
+        <v>69.30131041595034</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>80.08143163481348</v>
+        <v>79.3173446925399</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>83.64318910869306</v>
+        <v>82.05396596107992</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>85.50255947367002</v>
+        <v>84.24181016234712</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>40.89580098413583</v>
+        <v>39.62904105854444</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>81.09981486571084</v>
+        <v>79.41862320088002</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>81.29614303244993</v>
+        <v>79.92113671522178</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>65.25127532385217</v>
+        <v>64.04993608940376</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>53.9472064905233</v>
+        <v>51.99294182822459</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>61.43039551091096</v>
+        <v>59.71344112942867</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>68.593958294705</v>
+        <v>66.94288305103106</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.4708717997439</v>
+        <v>20.09434926053047</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>60.84006111106001</v>
+        <v>59.27376841476823</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>66.35618742089025</v>
+        <v>64.69747075583192</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.54313578150555</v>
+        <v>20.6049150958618</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.9745576133385</v>
+        <v>39.43225179020877</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.79236230175817</v>
+        <v>44.65435958249823</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>7.138659374651905</v>
+        <v>7.772404846328175</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.9798427618457</v>
+        <v>39.09199817034961</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.7973273569839</v>
+        <v>44.49537341356486</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.203905706340308</v>
+        <v>9.838403375365626</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>65.45245704567154</v>
+        <v>64.08678374354849</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>73.44509431780151</v>
+        <v>72.41094656758038</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>76.51883478857899</v>
+        <v>74.17095550724696</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>80.25740141259159</v>
+        <v>78.84769018604803</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>87.84652507948326</v>
+        <v>86.51428866318702</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.49425857331271</v>
+        <v>25.94810104641951</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>76.96122919786036</v>
+        <v>75.47243941503403</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>82.62576605162727</v>
+        <v>80.86190021712488</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>62.16656638999366</v>
+        <v>60.73348560173839</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.96324815337637</v>
+        <v>34.2512343930102</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.78221459859275</v>
+        <v>39.84790672458334</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>51.89213326795451</v>
+        <v>50.87583229505525</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>15.74627963962732</v>
+        <v>15.5366198671344</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>56.2280106023228</v>
+        <v>53.27779560567136</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>63.36298538631439</v>
+        <v>61.68064769214377</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.65400166764481</v>
+        <v>17.52167103564875</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.45561822487302</v>
+        <v>38.42372108581726</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>47.13502350989867</v>
+        <v>46.42379966280393</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.894295856189181</v>
+        <v>8.483479016518459</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>42.41004974715735</v>
+        <v>41.82398171848904</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>49.58802893420651</v>
+        <v>49.03498412354224</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.328469807177136</v>
+        <v>4.852132104914823</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.51209868297772</v>
+        <v>60.25769719791171</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>72.55606959741796</v>
+        <v>71.37269268325626</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>67.04596664769781</v>
+        <v>65.66076504104039</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>74.0782886303858</v>
+        <v>72.52627655111353</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>85.3231531897932</v>
+        <v>84.10997706471912</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.66917235919621</v>
+        <v>20.02129441829831</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>70.58768262465144</v>
+        <v>68.83010798476815</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>81.33826019057017</v>
+        <v>79.77867393745473</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.72429489050599</v>
+        <v>12.70934528505095</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.90938840990317</v>
+        <v>14.71365342585103</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.95136706580126</v>
+        <v>20.96972123723414</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.699726949963942</v>
+        <v>5.619345141923809</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.53038390578177</v>
+        <v>11.84831392575745</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.70579811693431</v>
+        <v>12.96860039315891</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.835765198592007</v>
+        <v>8.614284268776654</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.90791082263694</v>
+        <v>24.21699421194676</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.89001465658665</v>
+        <v>26.15441868243939</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.98592953031313</v>
+        <v>14.89963908908241</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.17227867302363</v>
+        <v>18.07939536200637</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.99790319782825</v>
+        <v>17.89888612551316</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.0353727731584</v>
+        <v>12.59715003349815</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.21015536273239</v>
+        <v>13.48582588039331</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>18.80313665075433</v>
+        <v>20.43306097687787</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.96196281022243</v>
+        <v>12.79427776780108</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.88391804672439</v>
+        <v>22.60349032333012</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.62416969553153</v>
+        <v>26.30200637626466</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.884779189883801</v>
+        <v>4.887884038892913</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.730852107670579</v>
+        <v>9.951872792398781</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.34288122173224</v>
+        <v>13.34274450480892</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.687385098168761</v>
+        <v>5.680666952549021</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.78829842916591</v>
+        <v>19.85102613539769</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.05351293195583</v>
+        <v>18.18448707135283</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.33653801975217</v>
+        <v>23.33408878615576</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.65885033324762</v>
+        <v>23.65826405081993</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.212295078452268</v>
+        <v>5.220388109670612</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.00810132208632</v>
+        <v>24.24280028550342</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.62878532624917</v>
+        <v>25.56376126009769</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.417422712107339</v>
+        <v>7.37879219739801</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.89483154310268</v>
+        <v>35.07805264790703</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.46922409528679</v>
+        <v>34.61918774244557</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.93085387551452</v>
+        <v>33.00885452592181</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.07362727572644</v>
+        <v>39.73635429837491</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.21730893873072</v>
+        <v>40.21714821396418</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.81814866381665</v>
+        <v>17.01725574743598</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.80223813304931</v>
+        <v>34.63770149117869</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.03341677201019</v>
+        <v>36.41760865077381</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.20346466902888</v>
+        <v>16.31430279864741</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.14086642824511</v>
+        <v>28.33894612791715</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.23241197907916</v>
+        <v>30.88308325478194</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.974580102170464</v>
+        <v>5.022270920756622</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.11655714011138</v>
+        <v>26.96718308890136</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.43591730915121</v>
+        <v>30.91514044737386</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.86858667271273</v>
+        <v>5.924997614626115</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>40.39150389169591</v>
+        <v>42.21996445238648</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>8.327165739086407</v>
+        <v>9.045180990514503</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.90334963864596</v>
+        <v>17.78399647871065</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.7975466333985</v>
+        <v>21.7062891405244</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>4.359853094612884</v>
+        <v>5.07496670720203</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.8904242708401</v>
+        <v>23.0958214046592</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.01014183082624</v>
+        <v>24.84876567952488</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.795290505723283</v>
+        <v>9.874104118130219</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.56859264267906</v>
+        <v>35.48164250249071</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.15197758903671</v>
+        <v>37.05539708592524</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.39742958173242</v>
+        <v>36.63305250021428</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.96879719979263</v>
+        <v>39.26081178851443</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>43.80857180316221</v>
+        <v>44.76264672225228</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.600344247289367</v>
+        <v>8.613908776812941</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.77555731940331</v>
+        <v>23.5858826342429</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.60450047464556</v>
+        <v>26.84609048373522</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.37471221339393</v>
+        <v>11.44137291835565</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.68362854030547</v>
+        <v>25.14081075684162</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.33867320907311</v>
+        <v>29.98101279945465</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.96143412500755</v>
+        <v>4.951954027407922</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.14211302097566</v>
+        <v>22.27116516249285</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.78936924128927</v>
+        <v>31.33682002664646</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>6.080488921088701</v>
+        <v>7.165350878883046</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.29862752187259</v>
+        <v>35.07168908033631</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>6.126712333002175</v>
+        <v>7.059655742762011</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>13.08678919128742</v>
+        <v>14.09985599971871</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.47895304137983</v>
+        <v>20.50220754101388</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.273106376032523</v>
+        <v>4.29896911934858</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.90300887653577</v>
+        <v>17.08451347061239</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.47726576712936</v>
+        <v>26.50281708002793</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>4.001142460106255</v>
+        <v>5.0582384804353</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.24978238558893</v>
+        <v>29.50417942779892</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.8440911847723</v>
+        <v>35.96632609270328</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.92249915338205</v>
+        <v>30.12546229567444</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.05120505632017</v>
+        <v>33.42862889621389</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.95772154279661</v>
+        <v>39.17098508979882</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.451736904662773</v>
+        <v>6.924141919914408</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.29183692554459</v>
+        <v>22.17531353146344</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.56541629770212</v>
+        <v>29.59275620989923</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.611996596564897</v>
+        <v>8.717113668043996</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.53945764575876</v>
+        <v>21.7463497029095</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.22325504924771</v>
+        <v>27.2363567049577</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.605743423947715</v>
+        <v>4.659217830215578</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.4033598936281</v>
+        <v>19.63113568722147</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.48998084546458</v>
+        <v>28.45862222339024</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>3.64575361947238</v>
+        <v>4.675806310764852</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.98416979310509</v>
+        <v>29.34010130082506</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.21474044365095</v>
+        <v>22.10691539613648</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>18.43410381016686</v>
+        <v>19.3611553957862</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.63739628321781</v>
+        <v>30.34063850129336</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.66906489364626</v>
+        <v>32.34334424936567</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.183043531131688</v>
+        <v>9.207938132825706</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.84916258036725</v>
+        <v>16.31192072421415</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.53116830489491</v>
+        <v>21.72472796937294</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.54028753073265</v>
+        <v>15.26356147688739</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.34638754791072</v>
+        <v>25.76377279326648</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.51555018986399</v>
+        <v>31.10631753556462</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3.991465281627963</v>
+        <v>4.768328786561188</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.965262133108752</v>
+        <v>10.03178281280654</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.04857430388093</v>
+        <v>15.09982144833468</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>5.996186334156469</v>
+        <v>6.764953238444914</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.20322071875797</v>
+        <v>22.7831943672495</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.15184647001065</v>
+        <v>35.70819793987543</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.11395491822215</v>
+        <v>23.74779550346393</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.86597259928824</v>
+        <v>36.45829254841065</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.94543128420365</v>
+        <v>40.42384418987238</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>9.149572839385385</v>
+        <v>10.01420912284533</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.95662756421196</v>
+        <v>20.65653581250356</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.91076111891432</v>
+        <v>29.57638618181902</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.73651019663776</v>
+        <v>48.25721924802227</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.22543388879149</v>
+        <v>42.07224605094758</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.13803111649146</v>
+        <v>50.4945208296229</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.87086454548281</v>
+        <v>51.14072748083356</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.34328932051847</v>
+        <v>15.59385491082313</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.65078333259516</v>
+        <v>46.27406310463979</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>48.98050661108881</v>
+        <v>49.31866119740391</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>24.11874558452336</v>
+        <v>24.59097621831263</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.01627152081215</v>
+        <v>35.54565503848479</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.40801382350395</v>
+        <v>40.65052845975536</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.88268176611134</v>
+        <v>6.803548222466382</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.1923121996608</v>
+        <v>36.65396690777254</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.24206194638605</v>
+        <v>40.29997532065142</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>11.27175135178965</v>
+        <v>11.86540726967543</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.13224368412494</v>
+        <v>56.06355602403132</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.37780849805718</v>
+        <v>59.01368858449933</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>63.61367216398214</v>
+        <v>63.35609933606767</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>68.7030170915791</v>
+        <v>69.32991477045147</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>73.62215718719102</v>
+        <v>72.59729171801878</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.85274243418643</v>
+        <v>29.17888492838682</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.75598403507142</v>
+        <v>64.35178513725219</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>66.7462096434294</v>
+        <v>66.30562511541356</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>49.30479774057085</v>
+        <v>49.57794438752822</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.30792982007483</v>
+        <v>35.74263424105705</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.59280635641876</v>
+        <v>41.7919076137322</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.7195448306982</v>
+        <v>49.1747398599326</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.01585808910435</v>
+        <v>11.2478535485069</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.7345837984335</v>
+        <v>40.30809895903998</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>45.5022332112231</v>
+        <v>46.19242319761591</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.9701639430502</v>
+        <v>17.59557332080046</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.27887628550837</v>
+        <v>32.92939943431131</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.47693512832292</v>
+        <v>40.40660859725746</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>4.754603243955149</v>
+        <v>5.828377807030414</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.26815097952829</v>
+        <v>32.91609293470336</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.6095032724436</v>
+        <v>38.71100056618104</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.07271299598228</v>
+        <v>11.00318420388859</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>51.1882763728868</v>
+        <v>51.51940468176429</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.03848221556716</v>
+        <v>62.4907332451367</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>58.69368870881665</v>
+        <v>58.90965809220742</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>63.19443578045585</v>
+        <v>63.31618593542771</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>75.95435714881748</v>
+        <v>74.97218939506992</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>18.40089713668582</v>
+        <v>19.23446882066381</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>58.24238526045208</v>
+        <v>58.43507894059982</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>65.37710575061973</v>
+        <v>65.1850168892685</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.95156604635029</v>
+        <v>43.70790911886254</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.52948019101837</v>
+        <v>22.93360075802014</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.76571756356425</v>
+        <v>27.90323645686998</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.47005269386065</v>
+        <v>34.69398960348326</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.2607741485965</v>
+        <v>8.455088287442386</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.27806005914131</v>
+        <v>29.14775500803613</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.52401207491488</v>
+        <v>40.73734103773778</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.20018066808641</v>
+        <v>13.21967296762882</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.08510539135751</v>
+        <v>31.33465388100731</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.67061947581988</v>
+        <v>39.81744976836668</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>4.317478847312881</v>
+        <v>5.326334570048722</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.77916343421926</v>
+        <v>31.18594931443472</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.6056556251843</v>
+        <v>38.80500432237123</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>5.280601695157635</v>
+        <v>6.375580739986091</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.39869211072366</v>
+        <v>46.74621853468082</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>60.42116452174456</v>
+        <v>60.07060559150113</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.47844423724766</v>
+        <v>50.6273577664129</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.36921422574667</v>
+        <v>56.63955179192708</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.04876187220178</v>
+        <v>70.4200650938396</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.54719132010751</v>
+        <v>12.45954969590871</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.88485281224023</v>
+        <v>53.18062234189738</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>63.73342373752938</v>
+        <v>63.67974063777642</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.31592436252453</v>
+        <v>21.08277747271612</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.82492905058875</v>
+        <v>16.63908711890157</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.47077289648534</v>
+        <v>34.13896157278509</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.516796518469945</v>
+        <v>7.701761210080612</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.2463762268451</v>
+        <v>32.17259589651587</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.23668761488683</v>
+        <v>35.93352504664048</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.98317524426367</v>
+        <v>12.56676997363192</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>53.17519233993276</v>
+        <v>51.85920902895072</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.47151261499586</v>
+        <v>54.33288137730675</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.48013536689018</v>
+        <v>17.5438273428136</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.11690098542372</v>
+        <v>20.84982456613942</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.95803071320571</v>
+        <v>20.81544252416197</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.5739880567159</v>
+        <v>32.42076910766436</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>17.28643846193474</v>
+        <v>19.85353384580748</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.156516690339</v>
+        <v>43.21687171378675</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.33359194109445</v>
+        <v>18.27632929880386</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.30152638987817</v>
+        <v>29.60996765012941</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.75011134632363</v>
+        <v>37.67524845954574</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.36711272342522</v>
+        <v>22.7561909064432</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.29274740567175</v>
+        <v>29.42829326086593</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.9795393906743</v>
+        <v>32.04657724172974</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.478359600049895</v>
+        <v>5.70052018327328</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.13470689187471</v>
+        <v>23.21392727169006</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.77851567715727</v>
+        <v>29.4201076255901</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.21479094655766</v>
+        <v>34.21577231239524</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.5393825699481</v>
+        <v>36.65146954132416</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>7.660887801045931</v>
+        <v>7.328646105672327</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>53.41270769507509</v>
+        <v>49.91932422927583</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.97026628173064</v>
+        <v>48.93204722113049</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>10.01772785252249</v>
+        <v>10.36082429225607</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>59.42854372968192</v>
+        <v>58.15710938390569</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.89260569985753</v>
+        <v>56.1430913491854</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.58967369873321</v>
+        <v>54.1839138215776</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.49052876032209</v>
+        <v>58.73496507632081</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>60.20148883258393</v>
+        <v>58.9492320200271</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.91870061204962</v>
+        <v>53.01097556115761</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>53.74309513022813</v>
+        <v>61.61283861335681</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>65.43218706731143</v>
+        <v>64.39902590110184</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.89198193981038</v>
+        <v>28.18260261857314</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.92941851185426</v>
+        <v>39.84543941995055</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.727952903324</v>
+        <v>39.8066901064112</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.64251293960145</v>
+        <v>23.33295096217343</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>50.07567620052022</v>
+        <v>47.78087805164492</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.2406879925727</v>
+        <v>45.88684693938285</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.030485664443962</v>
+        <v>7.892083455929008</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>54.65890262467192</v>
+        <v>56.87826964885632</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.04136304732892</v>
+        <v>13.28567459898807</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.12679485532885</v>
+        <v>25.8925674676065</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.51949609702471</v>
+        <v>31.8918523804885</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>6.46458130018965</v>
+        <v>5.222766148716261</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>47.723404674407</v>
+        <v>44.39104308164684</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.38402433116661</v>
+        <v>47.26141750900714</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>9.838788374110155</v>
+        <v>9.432072894342308</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>59.090520985448</v>
+        <v>56.73207568226267</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>63.41596378367947</v>
+        <v>61.12059107120659</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>68.1414369461787</v>
+        <v>65.45647332880749</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>69.03723838293608</v>
+        <v>66.91378185483619</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>71.34679037853317</v>
+        <v>69.56654055405257</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.72217027983571</v>
+        <v>15.3590259560184</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.64663043807028</v>
+        <v>38.94930366513427</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>52.71841854617648</v>
+        <v>50.64865071630366</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.58537260778707</v>
+        <v>21.56832255323186</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.05529638101034</v>
+        <v>35.60111945701755</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.55889933554935</v>
+        <v>37.60895769290718</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.79977589130806</v>
+        <v>23.56961108200282</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.06784856137901</v>
+        <v>40.8490946811359</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.28717669861294</v>
+        <v>47.57049479672656</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.132948460187993</v>
+        <v>8.111954578463958</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.30983134528378</v>
+        <v>51.70837664927872</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.86408849353894</v>
+        <v>7.282243450329972</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>18.2584328230122</v>
+        <v>18.92033660223105</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.60723711528777</v>
+        <v>29.60566688322097</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.556396214655251</v>
+        <v>6.2541414703039</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>51.50813863883988</v>
+        <v>47.63657540446222</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.67658862037587</v>
+        <v>50.52173071680424</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>4.348105136643802</v>
+        <v>4.942638927273215</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>59.94647390823507</v>
+        <v>57.46235008096073</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>61.73390022765722</v>
+        <v>59.83276035942916</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>63.48738996058984</v>
+        <v>60.01154632498449</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>64.36786890038715</v>
+        <v>61.41668909695096</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>70.92564641772158</v>
+        <v>68.12260746819199</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.75191619386279</v>
+        <v>13.98252145080721</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.52012968690541</v>
+        <v>29.48193994184908</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>56.86442957039409</v>
+        <v>54.42822966589657</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.75560195778541</v>
+        <v>15.43231636063198</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.23263556793617</v>
+        <v>31.75443727388263</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>37.73333906797114</v>
+        <v>37.49641294821504</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.54070314220835</v>
+        <v>23.41444534364108</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>45.90748791594612</v>
+        <v>42.52562816285862</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>52.92949879829171</v>
+        <v>50.48740059580648</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.686372719152338</v>
+        <v>4.062971226553334</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>50.67826604523405</v>
+        <v>49.19592483796016</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.03733542832275</v>
+        <v>26.66338088199497</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.26405579812499</v>
+        <v>23.08398397086513</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.06338541775816</v>
+        <v>37.80377093694383</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.01318181899682</v>
+        <v>41.31655237180676</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.0139882855869</v>
+        <v>11.09917219878187</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.77724954150468</v>
+        <v>19.46726566450495</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.89614329801106</v>
+        <v>27.073714366576</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.59263973731191</v>
+        <v>16.32884915118177</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.28913901084752</v>
+        <v>25.83656695947808</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.34375796777324</v>
+        <v>36.10137556204282</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.89627220156105</v>
+        <v>22.0787473445668</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.8011776953819</v>
+        <v>27.79442883334545</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.44683220019024</v>
+        <v>32.68317155321576</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.279786955195725</v>
+        <v>5.531826985424718</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.31794103698767</v>
+        <v>25.81949151214852</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>47.68803919610412</v>
+        <v>46.22596082225964</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.79176118886097</v>
+        <v>25.61698420906922</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.13379784808361</v>
+        <v>46.73743447823452</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>56.04577289725464</v>
+        <v>54.11408637604377</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.006270906789187</v>
+        <v>9.414452371201495</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.95585913513728</v>
+        <v>23.81465600521285</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.24442262850633</v>
+        <v>37.49492968889777</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.68066715407851</v>
+        <v>58.72301061176965</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>61.43832303402211</v>
+        <v>61.04459219011352</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>65.60125792115966</v>
+        <v>65.66090757921629</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>63.18546344151439</v>
+        <v>63.97657201432929</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.58227169504473</v>
+        <v>32.05790653188233</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>61.74418034891509</v>
+        <v>61.94604151000462</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>66.12832097456425</v>
+        <v>65.84560504745778</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.24890428680113</v>
+        <v>33.41421999702018</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.99578846023685</v>
+        <v>41.93804160838231</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.63027897990644</v>
+        <v>44.00252952041876</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.58948549497352</v>
+        <v>24.5993650819068</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>58.47168404249994</v>
+        <v>55.608056556001</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>53.00824391311677</v>
+        <v>51.41920093835038</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>8.727047525464595</v>
+        <v>9.514004536984295</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.1752222551292</v>
+        <v>68.74352968711798</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>68.15727388957356</v>
+        <v>67.81349782529371</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>82.14518242288237</v>
+        <v>81.2714052414325</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>82.96384468210454</v>
+        <v>82.16262662731802</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>84.70720682821451</v>
+        <v>84.39018394925237</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>44.26702073501821</v>
+        <v>43.293813970081</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>78.87571081053711</v>
+        <v>78.3761605809062</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>80.42812721672084</v>
+        <v>79.9793568729299</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>64.07602080548133</v>
+        <v>63.89077807206154</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.42984332363007</v>
+        <v>52.18855644973652</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>58.09022211289688</v>
+        <v>57.65780234577646</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>62.40174921958624</v>
+        <v>62.82368906827308</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.4850083922956</v>
+        <v>25.14894385359375</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>57.60481279699519</v>
+        <v>57.24919067833483</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>63.80388961056279</v>
+        <v>63.3486862308464</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.42909519143533</v>
+        <v>24.54314933114634</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.55767091857432</v>
+        <v>38.55623811812247</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.47466388568787</v>
+        <v>43.68856532178915</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.19601198263698</v>
+        <v>24.32413371316167</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>54.13071136464961</v>
+        <v>50.48498562752519</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>56.42911973575549</v>
+        <v>53.48005087480735</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.55392852128476</v>
+        <v>11.5512084016947</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>67.90035366779701</v>
+        <v>66.27735870574612</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>74.0222634343436</v>
+        <v>73.1642933550421</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>82.36604010028574</v>
+        <v>79.30213165682339</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.08210623351947</v>
+        <v>79.83644124317348</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>87.92446648292825</v>
+        <v>86.96908058994779</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.02196547719927</v>
+        <v>30.80571108672218</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>75.53460846666123</v>
+        <v>74.76280621969026</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>83.17815332607856</v>
+        <v>81.83792480646871</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>60.84655191379547</v>
+        <v>60.27157470294527</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.69202087089362</v>
+        <v>32.84470376577475</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.35118497056329</v>
+        <v>38.29434417390537</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.54696407266219</v>
+        <v>47.86398056289286</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.4716248406081</v>
+        <v>17.44526288146965</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>55.37772713850742</v>
+        <v>54.47919357690196</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>61.24068932819615</v>
+        <v>60.58395745575056</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.41436988942235</v>
+        <v>19.19261863799958</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.99644797578773</v>
+        <v>37.63513726832038</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.56826839052206</v>
+        <v>45.48917201814262</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.64725529501676</v>
+        <v>25.23417111220117</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.13649696835651</v>
+        <v>52.58817160846223</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>60.71751358250189</v>
+        <v>57.82823892404114</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.485571497913345</v>
+        <v>4.971007459160333</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>65.92551280877991</v>
+        <v>63.91735248829974</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>71.88448044839969</v>
+        <v>71.18621144557773</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>76.70477820920885</v>
+        <v>73.39689570829883</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>77.88100887158141</v>
+        <v>75.24546308509343</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>89.42989264029931</v>
+        <v>87.52628811905943</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.48426668909501</v>
+        <v>22.78254712038571</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>72.30307258677584</v>
+        <v>70.48052417989163</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>82.82620074628821</v>
+        <v>81.32591294456984</v>
       </c>
     </row>
   </sheetData>
